--- a/result/guifan.xlsx
+++ b/result/guifan.xlsx
@@ -21,13 +21,13 @@
     <t>guifan</t>
   </si>
   <si>
-    <t>litas</t>
+    <t>lijis</t>
   </si>
   <si>
     <t>shengtais</t>
   </si>
   <si>
-    <t>lijis</t>
+    <t>litas</t>
   </si>
   <si>
     <t>无</t>
@@ -130,7 +130,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -138,7 +138,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -146,7 +146,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -154,7 +154,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -162,7 +162,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -170,7 +170,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -178,7 +178,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -186,7 +186,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -194,7 +194,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -210,7 +210,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -218,7 +218,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -234,7 +234,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -242,7 +242,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -258,7 +258,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -266,7 +266,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -282,7 +282,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -290,7 +290,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -306,7 +306,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -322,7 +322,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -330,7 +330,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -338,7 +338,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -346,7 +346,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -362,7 +362,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -378,7 +378,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -386,7 +386,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -402,7 +402,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -410,7 +410,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -426,7 +426,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -434,7 +434,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -450,7 +450,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -458,7 +458,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -474,7 +474,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -482,7 +482,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -498,7 +498,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -506,7 +506,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -514,7 +514,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -538,7 +538,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
@@ -546,7 +546,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -554,7 +554,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -570,7 +570,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -594,7 +594,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -602,7 +602,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -618,7 +618,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -634,7 +634,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -674,7 +674,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -682,7 +682,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -690,7 +690,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -706,7 +706,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -714,7 +714,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
@@ -722,7 +722,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -730,7 +730,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
@@ -738,7 +738,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
@@ -746,7 +746,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -754,7 +754,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -770,7 +770,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -778,7 +778,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
@@ -794,7 +794,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -802,7 +802,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -810,7 +810,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -818,7 +818,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -826,7 +826,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -834,7 +834,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -858,7 +858,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -882,7 +882,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -890,7 +890,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -906,7 +906,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -914,7 +914,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -922,7 +922,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -930,7 +930,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108">
@@ -938,7 +938,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -946,7 +946,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -954,7 +954,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -962,7 +962,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
@@ -970,7 +970,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -986,7 +986,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -994,7 +994,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -1002,7 +1002,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
@@ -1018,7 +1018,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -1034,7 +1034,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121">
@@ -1042,7 +1042,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -1050,7 +1050,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123">
@@ -1058,7 +1058,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124">
@@ -1082,7 +1082,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -1090,7 +1090,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -1106,7 +1106,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
@@ -1122,7 +1122,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -1130,7 +1130,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
@@ -1138,7 +1138,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134">
@@ -1146,7 +1146,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -1154,7 +1154,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136">
@@ -1162,7 +1162,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137">
@@ -1170,7 +1170,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138">
@@ -1178,7 +1178,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139">
@@ -1186,7 +1186,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140">
@@ -1194,7 +1194,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141">
@@ -1210,7 +1210,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
@@ -1258,7 +1258,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -1282,7 +1282,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
@@ -1290,7 +1290,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153">
@@ -1330,7 +1330,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158">
@@ -1370,7 +1370,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163">
@@ -1378,7 +1378,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164">
@@ -1418,7 +1418,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169">
@@ -1426,7 +1426,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170">
@@ -1434,7 +1434,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -1442,7 +1442,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172">
@@ -1450,7 +1450,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -1466,7 +1466,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -1498,7 +1498,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179">
@@ -1506,7 +1506,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180">
@@ -1562,7 +1562,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -1594,7 +1594,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191">
@@ -1618,7 +1618,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="194">
@@ -1634,7 +1634,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196">
@@ -1642,7 +1642,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197">
@@ -1650,7 +1650,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198">
@@ -1666,7 +1666,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
@@ -1674,7 +1674,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
@@ -1682,7 +1682,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202">
@@ -1690,7 +1690,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
@@ -1698,7 +1698,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="204">
@@ -1706,7 +1706,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
@@ -1754,7 +1754,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211">
@@ -1770,7 +1770,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213">
@@ -1786,7 +1786,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215">
@@ -1794,7 +1794,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216">
@@ -1802,7 +1802,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217">
@@ -1810,7 +1810,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218">
@@ -1826,7 +1826,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220">
@@ -1834,7 +1834,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221">
@@ -1842,7 +1842,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222">
@@ -1850,7 +1850,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223">
@@ -1882,7 +1882,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227">
@@ -1890,7 +1890,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228">
@@ -1906,7 +1906,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230">
@@ -1914,7 +1914,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231">
@@ -1922,7 +1922,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232">
@@ -1930,7 +1930,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233">
@@ -1938,7 +1938,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234">
@@ -1946,7 +1946,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235">
@@ -1954,7 +1954,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236">
@@ -1962,7 +1962,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237">
@@ -1970,7 +1970,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238">
@@ -1986,7 +1986,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240">
@@ -1994,7 +1994,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241">
@@ -2002,7 +2002,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242">
@@ -2026,7 +2026,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245">
@@ -2034,7 +2034,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246">
@@ -2042,7 +2042,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247">
@@ -2066,7 +2066,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250">
@@ -2074,7 +2074,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251">
@@ -2082,7 +2082,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252">
@@ -2106,7 +2106,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255">
@@ -2122,7 +2122,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257">
@@ -2138,7 +2138,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259">
@@ -2154,7 +2154,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261">
@@ -2162,7 +2162,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262">
@@ -2170,7 +2170,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263">
@@ -2178,7 +2178,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264">
@@ -2202,7 +2202,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="267">
@@ -2210,7 +2210,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268">
@@ -2218,7 +2218,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269">
@@ -2226,7 +2226,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270">
@@ -2234,7 +2234,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="271">
@@ -2250,7 +2250,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273">
@@ -2258,7 +2258,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274">
@@ -2266,7 +2266,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275">
@@ -2274,7 +2274,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276">
@@ -2282,7 +2282,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277">
@@ -2290,7 +2290,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="278">
@@ -2298,7 +2298,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279">
@@ -2314,7 +2314,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281">
@@ -2322,7 +2322,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282">
@@ -2330,7 +2330,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283">
@@ -2338,7 +2338,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="284">
@@ -2346,7 +2346,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285">
@@ -2354,7 +2354,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286">
@@ -2362,7 +2362,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287">
@@ -2370,7 +2370,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288">
@@ -2378,7 +2378,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289">
@@ -2386,7 +2386,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290">
@@ -2394,7 +2394,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291">
@@ -2410,7 +2410,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293">
@@ -2418,7 +2418,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294">
@@ -2426,7 +2426,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295">
@@ -2450,7 +2450,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298">
@@ -2458,7 +2458,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299">
@@ -2466,7 +2466,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300">
@@ -2474,7 +2474,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301">
@@ -2490,7 +2490,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303">
@@ -2498,7 +2498,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304">
@@ -2506,7 +2506,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="305">
@@ -2522,7 +2522,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307">
@@ -2530,7 +2530,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308">
@@ -2538,7 +2538,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309">
@@ -2546,7 +2546,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310">
@@ -2554,7 +2554,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311">
@@ -2562,7 +2562,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312">
@@ -2570,7 +2570,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313">
@@ -2578,7 +2578,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314">
@@ -2586,7 +2586,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315">
@@ -2634,7 +2634,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321">
@@ -2650,7 +2650,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323">
@@ -2658,7 +2658,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324">
@@ -2666,7 +2666,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325">
@@ -2682,7 +2682,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327">
@@ -2698,7 +2698,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329">
@@ -2706,7 +2706,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330">
@@ -2714,7 +2714,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331">
@@ -2722,7 +2722,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332">
@@ -2730,7 +2730,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333">
@@ -2738,7 +2738,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334">
@@ -2746,7 +2746,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335">
@@ -2754,7 +2754,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336">
@@ -2762,7 +2762,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337">
@@ -2770,7 +2770,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338">
@@ -2778,7 +2778,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339">
@@ -2786,7 +2786,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340">
@@ -2794,7 +2794,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341">
@@ -2802,7 +2802,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342">
@@ -2810,7 +2810,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343">
@@ -2818,7 +2818,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="344">
@@ -2850,7 +2850,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348">
@@ -2858,7 +2858,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349">
@@ -2866,7 +2866,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="350">
@@ -2882,7 +2882,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352">
@@ -2906,7 +2906,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="355">
@@ -2914,7 +2914,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356">
@@ -2930,7 +2930,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358">
@@ -2938,7 +2938,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359">
@@ -2962,7 +2962,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="362">
@@ -2970,7 +2970,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363">
@@ -2986,7 +2986,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365">
@@ -3002,7 +3002,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367">
@@ -3042,7 +3042,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="372">
@@ -3058,7 +3058,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374">
@@ -3090,7 +3090,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="378">
@@ -3098,7 +3098,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379">
@@ -3122,7 +3122,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382">
@@ -3130,7 +3130,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383">
@@ -3146,7 +3146,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385">
@@ -3162,7 +3162,7 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387">
@@ -3170,7 +3170,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388">
@@ -3178,7 +3178,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389">
@@ -3194,7 +3194,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391">
@@ -3218,7 +3218,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394">
@@ -3234,7 +3234,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396">
@@ -3250,7 +3250,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398">
@@ -3274,7 +3274,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401">
@@ -3282,7 +3282,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402">
@@ -3290,7 +3290,7 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403">
@@ -3298,7 +3298,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404">
@@ -3314,7 +3314,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406">
@@ -3354,7 +3354,7 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411">
@@ -3362,7 +3362,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412">
@@ -3370,7 +3370,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413">
@@ -3394,7 +3394,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="416">
@@ -3402,7 +3402,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417">
@@ -3410,7 +3410,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418">
@@ -3418,7 +3418,7 @@
         <v>417</v>
       </c>
       <c r="B418" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419">
@@ -3434,7 +3434,7 @@
         <v>419</v>
       </c>
       <c r="B420" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="421">
@@ -3458,7 +3458,7 @@
         <v>422</v>
       </c>
       <c r="B423" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424">
@@ -3522,7 +3522,7 @@
         <v>430</v>
       </c>
       <c r="B431" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="432">
@@ -3554,7 +3554,7 @@
         <v>434</v>
       </c>
       <c r="B435" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436">
@@ -3570,7 +3570,7 @@
         <v>436</v>
       </c>
       <c r="B437" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="438">
@@ -3578,7 +3578,7 @@
         <v>437</v>
       </c>
       <c r="B438" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="439">
@@ -3586,7 +3586,7 @@
         <v>438</v>
       </c>
       <c r="B439" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="440">
@@ -3594,7 +3594,7 @@
         <v>439</v>
       </c>
       <c r="B440" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="441">
@@ -3602,7 +3602,7 @@
         <v>440</v>
       </c>
       <c r="B441" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442">
@@ -3610,7 +3610,7 @@
         <v>441</v>
       </c>
       <c r="B442" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="443">
@@ -3626,7 +3626,7 @@
         <v>443</v>
       </c>
       <c r="B444" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="445">
@@ -3634,7 +3634,7 @@
         <v>444</v>
       </c>
       <c r="B445" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446">
@@ -3666,7 +3666,7 @@
         <v>448</v>
       </c>
       <c r="B449" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450">
@@ -3674,7 +3674,7 @@
         <v>449</v>
       </c>
       <c r="B450" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451">
@@ -3698,7 +3698,7 @@
         <v>452</v>
       </c>
       <c r="B453" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="454">
@@ -3714,7 +3714,7 @@
         <v>454</v>
       </c>
       <c r="B455" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456">
@@ -3722,7 +3722,7 @@
         <v>455</v>
       </c>
       <c r="B456" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457">
@@ -3730,7 +3730,7 @@
         <v>456</v>
       </c>
       <c r="B457" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458">
@@ -3738,7 +3738,7 @@
         <v>457</v>
       </c>
       <c r="B458" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459">
@@ -3746,7 +3746,7 @@
         <v>458</v>
       </c>
       <c r="B459" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460">
@@ -3754,7 +3754,7 @@
         <v>459</v>
       </c>
       <c r="B460" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461">
@@ -3762,7 +3762,7 @@
         <v>460</v>
       </c>
       <c r="B461" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462">
@@ -3770,7 +3770,7 @@
         <v>461</v>
       </c>
       <c r="B462" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463">
@@ -3778,7 +3778,7 @@
         <v>462</v>
       </c>
       <c r="B463" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464">
@@ -3786,7 +3786,7 @@
         <v>463</v>
       </c>
       <c r="B464" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465">
@@ -3794,7 +3794,7 @@
         <v>464</v>
       </c>
       <c r="B465" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466">
@@ -3802,7 +3802,7 @@
         <v>465</v>
       </c>
       <c r="B466" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467">
@@ -3810,7 +3810,7 @@
         <v>466</v>
       </c>
       <c r="B467" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="468">
@@ -3834,7 +3834,7 @@
         <v>469</v>
       </c>
       <c r="B470" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471">
@@ -3842,7 +3842,7 @@
         <v>470</v>
       </c>
       <c r="B471" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472">
@@ -3850,7 +3850,7 @@
         <v>471</v>
       </c>
       <c r="B472" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473">
@@ -3866,7 +3866,7 @@
         <v>473</v>
       </c>
       <c r="B474" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475">
@@ -3874,7 +3874,7 @@
         <v>474</v>
       </c>
       <c r="B475" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476">
@@ -3882,7 +3882,7 @@
         <v>475</v>
       </c>
       <c r="B476" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477">
@@ -3890,7 +3890,7 @@
         <v>476</v>
       </c>
       <c r="B477" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478">
@@ -3914,7 +3914,7 @@
         <v>479</v>
       </c>
       <c r="B480" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481">
@@ -3930,7 +3930,7 @@
         <v>481</v>
       </c>
       <c r="B482" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="483">
@@ -3938,7 +3938,7 @@
         <v>482</v>
       </c>
       <c r="B483" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484">
@@ -3946,7 +3946,7 @@
         <v>483</v>
       </c>
       <c r="B484" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="485">
@@ -3954,7 +3954,7 @@
         <v>484</v>
       </c>
       <c r="B485" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486">
@@ -3970,7 +3970,7 @@
         <v>486</v>
       </c>
       <c r="B487" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488">
@@ -3978,7 +3978,7 @@
         <v>487</v>
       </c>
       <c r="B488" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489">
@@ -3986,7 +3986,7 @@
         <v>488</v>
       </c>
       <c r="B489" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490">
@@ -3994,7 +3994,7 @@
         <v>489</v>
       </c>
       <c r="B490" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491">
@@ -4002,7 +4002,7 @@
         <v>490</v>
       </c>
       <c r="B491" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492">
@@ -4010,7 +4010,7 @@
         <v>491</v>
       </c>
       <c r="B492" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493">
@@ -4018,7 +4018,7 @@
         <v>492</v>
       </c>
       <c r="B493" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494">
@@ -4026,7 +4026,7 @@
         <v>493</v>
       </c>
       <c r="B494" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495">
@@ -4034,7 +4034,7 @@
         <v>494</v>
       </c>
       <c r="B495" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496">
@@ -4042,7 +4042,7 @@
         <v>495</v>
       </c>
       <c r="B496" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497">
@@ -4050,7 +4050,7 @@
         <v>496</v>
       </c>
       <c r="B497" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498">
@@ -4058,7 +4058,7 @@
         <v>497</v>
       </c>
       <c r="B498" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499">
@@ -4066,7 +4066,7 @@
         <v>498</v>
       </c>
       <c r="B499" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500">
@@ -4082,7 +4082,7 @@
         <v>500</v>
       </c>
       <c r="B501" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="502">
@@ -4090,7 +4090,7 @@
         <v>501</v>
       </c>
       <c r="B502" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503">
@@ -4114,7 +4114,7 @@
         <v>504</v>
       </c>
       <c r="B505" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506">
@@ -4122,7 +4122,7 @@
         <v>505</v>
       </c>
       <c r="B506" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="507">
@@ -4138,7 +4138,7 @@
         <v>507</v>
       </c>
       <c r="B508" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509">
@@ -4146,7 +4146,7 @@
         <v>508</v>
       </c>
       <c r="B509" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="510">
@@ -4154,7 +4154,7 @@
         <v>509</v>
       </c>
       <c r="B510" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511">
@@ -4162,7 +4162,7 @@
         <v>510</v>
       </c>
       <c r="B511" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512">
@@ -4170,7 +4170,7 @@
         <v>511</v>
       </c>
       <c r="B512" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513">
@@ -4186,7 +4186,7 @@
         <v>513</v>
       </c>
       <c r="B514" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515">
@@ -4210,7 +4210,7 @@
         <v>516</v>
       </c>
       <c r="B517" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="518">
@@ -4218,7 +4218,7 @@
         <v>517</v>
       </c>
       <c r="B518" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="519">
@@ -4234,7 +4234,7 @@
         <v>519</v>
       </c>
       <c r="B520" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521">
@@ -4242,7 +4242,7 @@
         <v>520</v>
       </c>
       <c r="B521" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522">
@@ -4266,7 +4266,7 @@
         <v>523</v>
       </c>
       <c r="B524" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525">
@@ -4274,7 +4274,7 @@
         <v>524</v>
       </c>
       <c r="B525" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="526">
@@ -4290,7 +4290,7 @@
         <v>526</v>
       </c>
       <c r="B527" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="528">
@@ -4298,7 +4298,7 @@
         <v>527</v>
       </c>
       <c r="B528" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529">
@@ -4338,7 +4338,7 @@
         <v>532</v>
       </c>
       <c r="B533" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534">
@@ -4362,7 +4362,7 @@
         <v>535</v>
       </c>
       <c r="B536" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="537">
@@ -4370,7 +4370,7 @@
         <v>536</v>
       </c>
       <c r="B537" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="538">
@@ -4378,7 +4378,7 @@
         <v>537</v>
       </c>
       <c r="B538" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539">
@@ -4410,7 +4410,7 @@
         <v>541</v>
       </c>
       <c r="B542" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543">
@@ -4426,7 +4426,7 @@
         <v>543</v>
       </c>
       <c r="B544" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545">
@@ -4442,7 +4442,7 @@
         <v>545</v>
       </c>
       <c r="B546" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547">
@@ -4474,7 +4474,7 @@
         <v>549</v>
       </c>
       <c r="B550" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="551">
@@ -4490,7 +4490,7 @@
         <v>551</v>
       </c>
       <c r="B552" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553">
@@ -4498,7 +4498,7 @@
         <v>552</v>
       </c>
       <c r="B553" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554">
@@ -4514,7 +4514,7 @@
         <v>554</v>
       </c>
       <c r="B555" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556">
@@ -4522,7 +4522,7 @@
         <v>555</v>
       </c>
       <c r="B556" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557">
@@ -4530,7 +4530,7 @@
         <v>556</v>
       </c>
       <c r="B557" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558">
@@ -4538,7 +4538,7 @@
         <v>557</v>
       </c>
       <c r="B558" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="559">
@@ -4546,7 +4546,7 @@
         <v>558</v>
       </c>
       <c r="B559" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="560">
@@ -4554,7 +4554,7 @@
         <v>559</v>
       </c>
       <c r="B560" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561">
@@ -4570,7 +4570,7 @@
         <v>561</v>
       </c>
       <c r="B562" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563">
@@ -4594,7 +4594,7 @@
         <v>564</v>
       </c>
       <c r="B565" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566">
@@ -4610,7 +4610,7 @@
         <v>566</v>
       </c>
       <c r="B567" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568">
@@ -4618,7 +4618,7 @@
         <v>567</v>
       </c>
       <c r="B568" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569">
@@ -4626,7 +4626,7 @@
         <v>568</v>
       </c>
       <c r="B569" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570">
@@ -4634,7 +4634,7 @@
         <v>569</v>
       </c>
       <c r="B570" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571">
@@ -4642,7 +4642,7 @@
         <v>570</v>
       </c>
       <c r="B571" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572">
@@ -4650,7 +4650,7 @@
         <v>571</v>
       </c>
       <c r="B572" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573">
@@ -4658,7 +4658,7 @@
         <v>572</v>
       </c>
       <c r="B573" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574">
@@ -4666,7 +4666,7 @@
         <v>573</v>
       </c>
       <c r="B574" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="575">
@@ -4674,7 +4674,7 @@
         <v>574</v>
       </c>
       <c r="B575" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576">
@@ -4682,7 +4682,7 @@
         <v>575</v>
       </c>
       <c r="B576" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="577">
@@ -4690,7 +4690,7 @@
         <v>576</v>
       </c>
       <c r="B577" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578">
@@ -4714,7 +4714,7 @@
         <v>579</v>
       </c>
       <c r="B580" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581">
@@ -4730,7 +4730,7 @@
         <v>581</v>
       </c>
       <c r="B582" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583">
@@ -4738,7 +4738,7 @@
         <v>582</v>
       </c>
       <c r="B583" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584">
@@ -4746,7 +4746,7 @@
         <v>583</v>
       </c>
       <c r="B584" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585">
@@ -4770,7 +4770,7 @@
         <v>586</v>
       </c>
       <c r="B587" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="588">
@@ -4778,7 +4778,7 @@
         <v>587</v>
       </c>
       <c r="B588" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589">
@@ -4802,7 +4802,7 @@
         <v>590</v>
       </c>
       <c r="B591" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592">
@@ -4826,7 +4826,7 @@
         <v>593</v>
       </c>
       <c r="B594" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595">
@@ -4834,7 +4834,7 @@
         <v>594</v>
       </c>
       <c r="B595" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596">
@@ -4858,7 +4858,7 @@
         <v>597</v>
       </c>
       <c r="B598" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599">
@@ -4866,7 +4866,7 @@
         <v>598</v>
       </c>
       <c r="B599" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600">
@@ -4890,7 +4890,7 @@
         <v>601</v>
       </c>
       <c r="B602" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603">
@@ -4938,7 +4938,7 @@
         <v>607</v>
       </c>
       <c r="B608" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609">
@@ -4946,7 +4946,7 @@
         <v>608</v>
       </c>
       <c r="B609" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610">
@@ -4962,7 +4962,7 @@
         <v>610</v>
       </c>
       <c r="B611" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612">
@@ -4970,7 +4970,7 @@
         <v>611</v>
       </c>
       <c r="B612" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613">
@@ -4978,7 +4978,7 @@
         <v>612</v>
       </c>
       <c r="B613" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614">
@@ -4986,7 +4986,7 @@
         <v>613</v>
       </c>
       <c r="B614" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615">
@@ -5026,7 +5026,7 @@
         <v>618</v>
       </c>
       <c r="B619" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620">
@@ -5034,7 +5034,7 @@
         <v>619</v>
       </c>
       <c r="B620" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621">
@@ -5042,7 +5042,7 @@
         <v>620</v>
       </c>
       <c r="B621" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622">
@@ -5050,7 +5050,7 @@
         <v>621</v>
       </c>
       <c r="B622" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623">
@@ -5058,7 +5058,7 @@
         <v>622</v>
       </c>
       <c r="B623" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624">
@@ -5090,7 +5090,7 @@
         <v>626</v>
       </c>
       <c r="B627" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="628">
@@ -5098,7 +5098,7 @@
         <v>627</v>
       </c>
       <c r="B628" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="629">
@@ -5106,7 +5106,7 @@
         <v>628</v>
       </c>
       <c r="B629" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="630">
@@ -5114,7 +5114,7 @@
         <v>629</v>
       </c>
       <c r="B630" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="631">
@@ -5122,7 +5122,7 @@
         <v>630</v>
       </c>
       <c r="B631" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632">
@@ -5138,7 +5138,7 @@
         <v>632</v>
       </c>
       <c r="B633" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="634">
@@ -5146,7 +5146,7 @@
         <v>633</v>
       </c>
       <c r="B634" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635">
@@ -5162,7 +5162,7 @@
         <v>635</v>
       </c>
       <c r="B636" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637">
@@ -5170,7 +5170,7 @@
         <v>636</v>
       </c>
       <c r="B637" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638">
@@ -5186,7 +5186,7 @@
         <v>638</v>
       </c>
       <c r="B639" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640">
@@ -5194,7 +5194,7 @@
         <v>639</v>
       </c>
       <c r="B640" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641">
@@ -5234,7 +5234,7 @@
         <v>644</v>
       </c>
       <c r="B645" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="646">
@@ -5242,7 +5242,7 @@
         <v>645</v>
       </c>
       <c r="B646" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="647">
@@ -5250,7 +5250,7 @@
         <v>646</v>
       </c>
       <c r="B647" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="648">
@@ -5258,7 +5258,7 @@
         <v>647</v>
       </c>
       <c r="B648" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="649">
@@ -5266,7 +5266,7 @@
         <v>648</v>
       </c>
       <c r="B649" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="650">
@@ -5274,7 +5274,7 @@
         <v>649</v>
       </c>
       <c r="B650" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651">
@@ -5298,7 +5298,7 @@
         <v>652</v>
       </c>
       <c r="B653" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="654">
@@ -5322,7 +5322,7 @@
         <v>655</v>
       </c>
       <c r="B656" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="657">
@@ -5346,7 +5346,7 @@
         <v>658</v>
       </c>
       <c r="B659" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660">
@@ -5378,7 +5378,7 @@
         <v>662</v>
       </c>
       <c r="B663" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664">
@@ -5426,7 +5426,7 @@
         <v>668</v>
       </c>
       <c r="B669" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670">
@@ -5434,7 +5434,7 @@
         <v>669</v>
       </c>
       <c r="B670" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671">
@@ -5442,7 +5442,7 @@
         <v>670</v>
       </c>
       <c r="B671" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672">
@@ -5458,7 +5458,7 @@
         <v>672</v>
       </c>
       <c r="B673" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674">
@@ -5466,7 +5466,7 @@
         <v>673</v>
       </c>
       <c r="B674" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675">
@@ -5474,7 +5474,7 @@
         <v>674</v>
       </c>
       <c r="B675" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676">
@@ -5490,7 +5490,7 @@
         <v>676</v>
       </c>
       <c r="B677" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678">
@@ -5498,7 +5498,7 @@
         <v>677</v>
       </c>
       <c r="B678" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679">
@@ -5506,7 +5506,7 @@
         <v>678</v>
       </c>
       <c r="B679" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680">
@@ -5514,7 +5514,7 @@
         <v>679</v>
       </c>
       <c r="B680" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681">
@@ -5522,7 +5522,7 @@
         <v>680</v>
       </c>
       <c r="B681" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682">
@@ -5538,7 +5538,7 @@
         <v>682</v>
       </c>
       <c r="B683" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684">
@@ -5546,7 +5546,7 @@
         <v>683</v>
       </c>
       <c r="B684" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="685">
@@ -5554,7 +5554,7 @@
         <v>684</v>
       </c>
       <c r="B685" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686">
@@ -5570,7 +5570,7 @@
         <v>686</v>
       </c>
       <c r="B687" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="688">
@@ -5578,7 +5578,7 @@
         <v>687</v>
       </c>
       <c r="B688" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689">
@@ -5586,7 +5586,7 @@
         <v>688</v>
       </c>
       <c r="B689" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690">
@@ -5602,7 +5602,7 @@
         <v>690</v>
       </c>
       <c r="B691" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="692">
@@ -5610,7 +5610,7 @@
         <v>691</v>
       </c>
       <c r="B692" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693">
@@ -5618,7 +5618,7 @@
         <v>692</v>
       </c>
       <c r="B693" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694">
@@ -5626,7 +5626,7 @@
         <v>693</v>
       </c>
       <c r="B694" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695">
@@ -5714,7 +5714,7 @@
         <v>704</v>
       </c>
       <c r="B705" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="706">
@@ -5730,7 +5730,7 @@
         <v>706</v>
       </c>
       <c r="B707" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="708">
@@ -5738,7 +5738,7 @@
         <v>707</v>
       </c>
       <c r="B708" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="709">
@@ -5778,7 +5778,7 @@
         <v>712</v>
       </c>
       <c r="B713" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="714">
@@ -5786,7 +5786,7 @@
         <v>713</v>
       </c>
       <c r="B714" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="715">
@@ -5802,7 +5802,7 @@
         <v>715</v>
       </c>
       <c r="B716" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="717">
@@ -5826,7 +5826,7 @@
         <v>718</v>
       </c>
       <c r="B719" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="720">
@@ -5842,7 +5842,7 @@
         <v>720</v>
       </c>
       <c r="B721" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="722">
@@ -5850,7 +5850,7 @@
         <v>721</v>
       </c>
       <c r="B722" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="723">
@@ -5858,7 +5858,7 @@
         <v>722</v>
       </c>
       <c r="B723" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724">
@@ -5866,7 +5866,7 @@
         <v>723</v>
       </c>
       <c r="B724" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725">
@@ -5874,7 +5874,7 @@
         <v>724</v>
       </c>
       <c r="B725" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="726">
@@ -5890,7 +5890,7 @@
         <v>726</v>
       </c>
       <c r="B727" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="728">
@@ -5906,7 +5906,7 @@
         <v>728</v>
       </c>
       <c r="B729" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="730">
@@ -5914,7 +5914,7 @@
         <v>729</v>
       </c>
       <c r="B730" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731">
@@ -5922,7 +5922,7 @@
         <v>730</v>
       </c>
       <c r="B731" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732">
@@ -5930,7 +5930,7 @@
         <v>731</v>
       </c>
       <c r="B732" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733">
@@ -5938,7 +5938,7 @@
         <v>732</v>
       </c>
       <c r="B733" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734">
@@ -5954,7 +5954,7 @@
         <v>734</v>
       </c>
       <c r="B735" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736">
@@ -5962,7 +5962,7 @@
         <v>735</v>
       </c>
       <c r="B736" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737">
@@ -5970,7 +5970,7 @@
         <v>736</v>
       </c>
       <c r="B737" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738">
@@ -5986,7 +5986,7 @@
         <v>738</v>
       </c>
       <c r="B739" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="740">
@@ -6018,7 +6018,7 @@
         <v>742</v>
       </c>
       <c r="B743" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744">
@@ -6042,7 +6042,7 @@
         <v>745</v>
       </c>
       <c r="B746" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747">
@@ -6050,7 +6050,7 @@
         <v>746</v>
       </c>
       <c r="B747" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="748">
@@ -6058,7 +6058,7 @@
         <v>747</v>
       </c>
       <c r="B748" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749">
@@ -6066,7 +6066,7 @@
         <v>748</v>
       </c>
       <c r="B749" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750">
@@ -6074,7 +6074,7 @@
         <v>749</v>
       </c>
       <c r="B750" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751">
@@ -6090,7 +6090,7 @@
         <v>751</v>
       </c>
       <c r="B752" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753">
@@ -6098,7 +6098,7 @@
         <v>752</v>
       </c>
       <c r="B753" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754">
@@ -6106,7 +6106,7 @@
         <v>753</v>
       </c>
       <c r="B754" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755">
@@ -6114,7 +6114,7 @@
         <v>754</v>
       </c>
       <c r="B755" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756">
@@ -6122,7 +6122,7 @@
         <v>755</v>
       </c>
       <c r="B756" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757">
@@ -6130,7 +6130,7 @@
         <v>756</v>
       </c>
       <c r="B757" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758">
@@ -6138,7 +6138,7 @@
         <v>757</v>
       </c>
       <c r="B758" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759">
@@ -6146,7 +6146,7 @@
         <v>758</v>
       </c>
       <c r="B759" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760">
@@ -6154,7 +6154,7 @@
         <v>759</v>
       </c>
       <c r="B760" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761">
@@ -6162,7 +6162,7 @@
         <v>760</v>
       </c>
       <c r="B761" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762">
@@ -6170,7 +6170,7 @@
         <v>761</v>
       </c>
       <c r="B762" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763">
@@ -6186,7 +6186,7 @@
         <v>763</v>
       </c>
       <c r="B764" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="765">
@@ -6210,7 +6210,7 @@
         <v>766</v>
       </c>
       <c r="B767" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768">
@@ -6226,7 +6226,7 @@
         <v>768</v>
       </c>
       <c r="B769" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770">
@@ -6234,7 +6234,7 @@
         <v>769</v>
       </c>
       <c r="B770" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771">
@@ -6274,7 +6274,7 @@
         <v>774</v>
       </c>
       <c r="B775" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776">
@@ -6282,7 +6282,7 @@
         <v>775</v>
       </c>
       <c r="B776" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777">
@@ -6290,7 +6290,7 @@
         <v>776</v>
       </c>
       <c r="B777" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778">
@@ -6298,7 +6298,7 @@
         <v>777</v>
       </c>
       <c r="B778" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779">
@@ -6306,7 +6306,7 @@
         <v>778</v>
       </c>
       <c r="B779" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780">
@@ -6314,7 +6314,7 @@
         <v>779</v>
       </c>
       <c r="B780" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="781">
@@ -6322,7 +6322,7 @@
         <v>780</v>
       </c>
       <c r="B781" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="782">
@@ -6346,7 +6346,7 @@
         <v>783</v>
       </c>
       <c r="B784" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="785">
@@ -6354,7 +6354,7 @@
         <v>784</v>
       </c>
       <c r="B785" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="786">
@@ -6362,7 +6362,7 @@
         <v>785</v>
       </c>
       <c r="B786" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="787">
@@ -6418,7 +6418,7 @@
         <v>792</v>
       </c>
       <c r="B793" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="794">
@@ -6426,7 +6426,7 @@
         <v>793</v>
       </c>
       <c r="B794" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="795">
@@ -6434,7 +6434,7 @@
         <v>794</v>
       </c>
       <c r="B795" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="796">
@@ -6442,7 +6442,7 @@
         <v>795</v>
       </c>
       <c r="B796" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="797">
@@ -6466,7 +6466,7 @@
         <v>798</v>
       </c>
       <c r="B799" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800">
@@ -6474,7 +6474,7 @@
         <v>799</v>
       </c>
       <c r="B800" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="801">
@@ -6482,7 +6482,7 @@
         <v>800</v>
       </c>
       <c r="B801" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802">
@@ -6490,7 +6490,7 @@
         <v>801</v>
       </c>
       <c r="B802" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803">
@@ -6506,7 +6506,7 @@
         <v>803</v>
       </c>
       <c r="B804" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805">
@@ -6514,7 +6514,7 @@
         <v>804</v>
       </c>
       <c r="B805" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806">
@@ -6538,7 +6538,7 @@
         <v>807</v>
       </c>
       <c r="B808" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="809">
@@ -6546,7 +6546,7 @@
         <v>808</v>
       </c>
       <c r="B809" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="810">
@@ -6554,7 +6554,7 @@
         <v>809</v>
       </c>
       <c r="B810" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="811">
@@ -6570,7 +6570,7 @@
         <v>811</v>
       </c>
       <c r="B812" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="813">
@@ -6578,7 +6578,7 @@
         <v>812</v>
       </c>
       <c r="B813" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814">
@@ -6586,7 +6586,7 @@
         <v>813</v>
       </c>
       <c r="B814" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="815">
@@ -6602,7 +6602,7 @@
         <v>815</v>
       </c>
       <c r="B816" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="817">
@@ -6610,7 +6610,7 @@
         <v>816</v>
       </c>
       <c r="B817" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="818">
@@ -6618,7 +6618,7 @@
         <v>817</v>
       </c>
       <c r="B818" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819">
@@ -6626,7 +6626,7 @@
         <v>818</v>
       </c>
       <c r="B819" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820">
@@ -6634,7 +6634,7 @@
         <v>819</v>
       </c>
       <c r="B820" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="821">
@@ -6642,7 +6642,7 @@
         <v>820</v>
       </c>
       <c r="B821" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822">
@@ -6666,7 +6666,7 @@
         <v>823</v>
       </c>
       <c r="B824" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825">
@@ -6682,7 +6682,7 @@
         <v>825</v>
       </c>
       <c r="B826" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827">
@@ -6706,7 +6706,7 @@
         <v>828</v>
       </c>
       <c r="B829" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830">
@@ -6738,7 +6738,7 @@
         <v>832</v>
       </c>
       <c r="B833" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834">
@@ -6770,7 +6770,7 @@
         <v>836</v>
       </c>
       <c r="B837" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838">
@@ -6834,7 +6834,7 @@
         <v>844</v>
       </c>
       <c r="B845" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="846">
@@ -6842,7 +6842,7 @@
         <v>845</v>
       </c>
       <c r="B846" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="847">
@@ -6874,7 +6874,7 @@
         <v>849</v>
       </c>
       <c r="B850" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="851">
@@ -6898,7 +6898,7 @@
         <v>852</v>
       </c>
       <c r="B853" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854">
@@ -6922,7 +6922,7 @@
         <v>855</v>
       </c>
       <c r="B856" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="857">
@@ -6938,7 +6938,7 @@
         <v>857</v>
       </c>
       <c r="B858" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859">
@@ -6954,7 +6954,7 @@
         <v>859</v>
       </c>
       <c r="B860" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861">
@@ -6962,7 +6962,7 @@
         <v>860</v>
       </c>
       <c r="B861" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862">
@@ -6970,7 +6970,7 @@
         <v>861</v>
       </c>
       <c r="B862" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863">
@@ -6978,7 +6978,7 @@
         <v>862</v>
       </c>
       <c r="B863" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864">
@@ -6986,7 +6986,7 @@
         <v>863</v>
       </c>
       <c r="B864" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865">
@@ -6994,7 +6994,7 @@
         <v>864</v>
       </c>
       <c r="B865" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="866">
@@ -7010,7 +7010,7 @@
         <v>866</v>
       </c>
       <c r="B867" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868">
@@ -7018,7 +7018,7 @@
         <v>867</v>
       </c>
       <c r="B868" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869">
@@ -7034,7 +7034,7 @@
         <v>869</v>
       </c>
       <c r="B870" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871">
@@ -7042,7 +7042,7 @@
         <v>870</v>
       </c>
       <c r="B871" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872">
@@ -7050,7 +7050,7 @@
         <v>871</v>
       </c>
       <c r="B872" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873">
@@ -7058,7 +7058,7 @@
         <v>872</v>
       </c>
       <c r="B873" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874">
@@ -7066,7 +7066,7 @@
         <v>873</v>
       </c>
       <c r="B874" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875">
@@ -7074,7 +7074,7 @@
         <v>874</v>
       </c>
       <c r="B875" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876">
@@ -7098,7 +7098,7 @@
         <v>877</v>
       </c>
       <c r="B878" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879">
@@ -7106,7 +7106,7 @@
         <v>878</v>
       </c>
       <c r="B879" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880">
@@ -7122,7 +7122,7 @@
         <v>880</v>
       </c>
       <c r="B881" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882">
@@ -7130,7 +7130,7 @@
         <v>881</v>
       </c>
       <c r="B882" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883">
@@ -7138,7 +7138,7 @@
         <v>882</v>
       </c>
       <c r="B883" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884">
@@ -7146,7 +7146,7 @@
         <v>883</v>
       </c>
       <c r="B884" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885">
@@ -7154,7 +7154,7 @@
         <v>884</v>
       </c>
       <c r="B885" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886">
@@ -7170,7 +7170,7 @@
         <v>886</v>
       </c>
       <c r="B887" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888">
@@ -7178,7 +7178,7 @@
         <v>887</v>
       </c>
       <c r="B888" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889">
@@ -7186,7 +7186,7 @@
         <v>888</v>
       </c>
       <c r="B889" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890">
@@ -7202,7 +7202,7 @@
         <v>890</v>
       </c>
       <c r="B891" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892">
@@ -7210,7 +7210,7 @@
         <v>891</v>
       </c>
       <c r="B892" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893">
@@ -7218,7 +7218,7 @@
         <v>892</v>
       </c>
       <c r="B893" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894">
@@ -7226,7 +7226,7 @@
         <v>893</v>
       </c>
       <c r="B894" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895">
@@ -7234,7 +7234,7 @@
         <v>894</v>
       </c>
       <c r="B895" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896">
@@ -7250,7 +7250,7 @@
         <v>896</v>
       </c>
       <c r="B897" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898">
@@ -7258,7 +7258,7 @@
         <v>897</v>
       </c>
       <c r="B898" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="899">
@@ -7266,7 +7266,7 @@
         <v>898</v>
       </c>
       <c r="B899" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="900">
@@ -7274,7 +7274,7 @@
         <v>899</v>
       </c>
       <c r="B900" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="901">
@@ -7282,7 +7282,7 @@
         <v>900</v>
       </c>
       <c r="B901" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902">
@@ -7298,7 +7298,7 @@
         <v>902</v>
       </c>
       <c r="B903" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904">
@@ -7306,7 +7306,7 @@
         <v>903</v>
       </c>
       <c r="B904" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="905">
@@ -7322,7 +7322,7 @@
         <v>905</v>
       </c>
       <c r="B906" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907">
@@ -7330,7 +7330,7 @@
         <v>906</v>
       </c>
       <c r="B907" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908">
@@ -7338,7 +7338,7 @@
         <v>907</v>
       </c>
       <c r="B908" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909">
@@ -7346,7 +7346,7 @@
         <v>908</v>
       </c>
       <c r="B909" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910">
@@ -7378,7 +7378,7 @@
         <v>912</v>
       </c>
       <c r="B913" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="914">
@@ -7386,7 +7386,7 @@
         <v>913</v>
       </c>
       <c r="B914" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915">
@@ -7394,7 +7394,7 @@
         <v>914</v>
       </c>
       <c r="B915" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916">
@@ -7410,7 +7410,7 @@
         <v>916</v>
       </c>
       <c r="B917" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="918">
@@ -7418,7 +7418,7 @@
         <v>917</v>
       </c>
       <c r="B918" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919">
@@ -7426,7 +7426,7 @@
         <v>918</v>
       </c>
       <c r="B919" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="920">
@@ -7434,7 +7434,7 @@
         <v>919</v>
       </c>
       <c r="B920" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921">
@@ -7442,7 +7442,7 @@
         <v>920</v>
       </c>
       <c r="B921" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="922">
@@ -7450,7 +7450,7 @@
         <v>921</v>
       </c>
       <c r="B922" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="923">
@@ -7458,7 +7458,7 @@
         <v>922</v>
       </c>
       <c r="B923" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="924">
@@ -7474,7 +7474,7 @@
         <v>924</v>
       </c>
       <c r="B925" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="926">
@@ -7482,7 +7482,7 @@
         <v>925</v>
       </c>
       <c r="B926" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="927">
@@ -7498,7 +7498,7 @@
         <v>927</v>
       </c>
       <c r="B928" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="929">
@@ -7506,7 +7506,7 @@
         <v>928</v>
       </c>
       <c r="B929" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="930">
@@ -7530,7 +7530,7 @@
         <v>931</v>
       </c>
       <c r="B932" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="933">
@@ -7538,7 +7538,7 @@
         <v>932</v>
       </c>
       <c r="B933" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="934">
@@ -7562,7 +7562,7 @@
         <v>935</v>
       </c>
       <c r="B936" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="937">
@@ -7570,7 +7570,7 @@
         <v>936</v>
       </c>
       <c r="B937" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="938">
@@ -7578,7 +7578,7 @@
         <v>937</v>
       </c>
       <c r="B938" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="939">
@@ -7602,7 +7602,7 @@
         <v>940</v>
       </c>
       <c r="B941" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="942">
@@ -7634,7 +7634,7 @@
         <v>944</v>
       </c>
       <c r="B945" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="946">
@@ -7642,7 +7642,7 @@
         <v>945</v>
       </c>
       <c r="B946" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="947">
@@ -7650,7 +7650,7 @@
         <v>946</v>
       </c>
       <c r="B947" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="948">
@@ -7666,7 +7666,7 @@
         <v>948</v>
       </c>
       <c r="B949" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="950">
@@ -7674,7 +7674,7 @@
         <v>949</v>
       </c>
       <c r="B950" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="951">
@@ -7690,7 +7690,7 @@
         <v>951</v>
       </c>
       <c r="B952" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="953">
@@ -7698,7 +7698,7 @@
         <v>952</v>
       </c>
       <c r="B953" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="954">
@@ -7706,7 +7706,7 @@
         <v>953</v>
       </c>
       <c r="B954" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="955">
@@ -7714,7 +7714,7 @@
         <v>954</v>
       </c>
       <c r="B955" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="956">
@@ -7722,7 +7722,7 @@
         <v>955</v>
       </c>
       <c r="B956" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="957">
@@ -7730,7 +7730,7 @@
         <v>956</v>
       </c>
       <c r="B957" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="958">
@@ -7746,7 +7746,7 @@
         <v>958</v>
       </c>
       <c r="B959" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="960">
@@ -7770,7 +7770,7 @@
         <v>961</v>
       </c>
       <c r="B962" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="963">
@@ -7778,7 +7778,7 @@
         <v>962</v>
       </c>
       <c r="B963" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="964">
@@ -7810,7 +7810,7 @@
         <v>966</v>
       </c>
       <c r="B967" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="968">
@@ -7826,7 +7826,7 @@
         <v>968</v>
       </c>
       <c r="B969" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="970">
@@ -7842,7 +7842,7 @@
         <v>970</v>
       </c>
       <c r="B971" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="972">
@@ -7866,7 +7866,7 @@
         <v>973</v>
       </c>
       <c r="B974" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975">
@@ -7898,7 +7898,7 @@
         <v>977</v>
       </c>
       <c r="B978" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="979">
@@ -7930,7 +7930,7 @@
         <v>981</v>
       </c>
       <c r="B982" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="983">
@@ -7938,7 +7938,7 @@
         <v>982</v>
       </c>
       <c r="B983" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="984">
@@ -7946,7 +7946,7 @@
         <v>983</v>
       </c>
       <c r="B984" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985">
@@ -7962,7 +7962,7 @@
         <v>985</v>
       </c>
       <c r="B986" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="987">
@@ -7986,7 +7986,7 @@
         <v>988</v>
       </c>
       <c r="B989" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="990">
@@ -8010,7 +8010,7 @@
         <v>991</v>
       </c>
       <c r="B992" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993">
@@ -8018,7 +8018,7 @@
         <v>992</v>
       </c>
       <c r="B993" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="994">
@@ -8026,7 +8026,7 @@
         <v>993</v>
       </c>
       <c r="B994" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="995">
@@ -8042,7 +8042,7 @@
         <v>995</v>
       </c>
       <c r="B996" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="997">
@@ -8050,7 +8050,7 @@
         <v>996</v>
       </c>
       <c r="B997" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="998">
@@ -8074,7 +8074,7 @@
         <v>999</v>
       </c>
       <c r="B1000" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1001">
@@ -8082,7 +8082,7 @@
         <v>1000</v>
       </c>
       <c r="B1001" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1002">
@@ -8090,7 +8090,7 @@
         <v>1001</v>
       </c>
       <c r="B1002" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1003">
@@ -8098,7 +8098,7 @@
         <v>1002</v>
       </c>
       <c r="B1003" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1004">
@@ -8106,7 +8106,7 @@
         <v>1003</v>
       </c>
       <c r="B1004" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1005">
@@ -8122,7 +8122,7 @@
         <v>1005</v>
       </c>
       <c r="B1006" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1007">
@@ -8138,7 +8138,7 @@
         <v>1007</v>
       </c>
       <c r="B1008" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1009">
@@ -8154,7 +8154,7 @@
         <v>1009</v>
       </c>
       <c r="B1010" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1011">
@@ -8162,7 +8162,7 @@
         <v>1010</v>
       </c>
       <c r="B1011" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1012">
@@ -8170,7 +8170,7 @@
         <v>1011</v>
       </c>
       <c r="B1012" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1013">
@@ -8178,7 +8178,7 @@
         <v>1012</v>
       </c>
       <c r="B1013" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1014">
@@ -8186,7 +8186,7 @@
         <v>1013</v>
       </c>
       <c r="B1014" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1015">
@@ -8194,7 +8194,7 @@
         <v>1014</v>
       </c>
       <c r="B1015" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1016">
@@ -8202,7 +8202,7 @@
         <v>1015</v>
       </c>
       <c r="B1016" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1017">
@@ -8218,7 +8218,7 @@
         <v>1017</v>
       </c>
       <c r="B1018" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1019">
@@ -8226,7 +8226,7 @@
         <v>1018</v>
       </c>
       <c r="B1019" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1020">
@@ -8234,7 +8234,7 @@
         <v>1019</v>
       </c>
       <c r="B1020" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1021">
@@ -8242,7 +8242,7 @@
         <v>1020</v>
       </c>
       <c r="B1021" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1022">
@@ -8250,7 +8250,7 @@
         <v>1021</v>
       </c>
       <c r="B1022" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1023">
@@ -8258,7 +8258,7 @@
         <v>1022</v>
       </c>
       <c r="B1023" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1024">
@@ -8266,7 +8266,7 @@
         <v>1023</v>
       </c>
       <c r="B1024" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1025">
@@ -8274,7 +8274,7 @@
         <v>1024</v>
       </c>
       <c r="B1025" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1026">
@@ -8282,7 +8282,7 @@
         <v>1025</v>
       </c>
       <c r="B1026" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1027">
@@ -8290,7 +8290,7 @@
         <v>1026</v>
       </c>
       <c r="B1027" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1028">
@@ -8330,7 +8330,7 @@
         <v>1031</v>
       </c>
       <c r="B1032" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1033">
@@ -8338,7 +8338,7 @@
         <v>1032</v>
       </c>
       <c r="B1033" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1034">
@@ -8346,7 +8346,7 @@
         <v>1033</v>
       </c>
       <c r="B1034" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1035">
@@ -8354,7 +8354,7 @@
         <v>1034</v>
       </c>
       <c r="B1035" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1036">
@@ -8362,7 +8362,7 @@
         <v>1035</v>
       </c>
       <c r="B1036" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1037">
@@ -8378,7 +8378,7 @@
         <v>1037</v>
       </c>
       <c r="B1038" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1039">
@@ -8394,7 +8394,7 @@
         <v>1039</v>
       </c>
       <c r="B1040" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1041">
@@ -8426,7 +8426,7 @@
         <v>1043</v>
       </c>
       <c r="B1044" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1045">
@@ -8434,7 +8434,7 @@
         <v>1044</v>
       </c>
       <c r="B1045" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1046">
@@ -8442,7 +8442,7 @@
         <v>1045</v>
       </c>
       <c r="B1046" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1047">
@@ -8450,7 +8450,7 @@
         <v>1046</v>
       </c>
       <c r="B1047" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1048">
@@ -8458,7 +8458,7 @@
         <v>1047</v>
       </c>
       <c r="B1048" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1049">
@@ -8466,7 +8466,7 @@
         <v>1048</v>
       </c>
       <c r="B1049" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1050">
@@ -8474,7 +8474,7 @@
         <v>1049</v>
       </c>
       <c r="B1050" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1051">
@@ -8482,7 +8482,7 @@
         <v>1050</v>
       </c>
       <c r="B1051" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1052">
@@ -8490,7 +8490,7 @@
         <v>1051</v>
       </c>
       <c r="B1052" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1053">
@@ -8498,7 +8498,7 @@
         <v>1052</v>
       </c>
       <c r="B1053" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1054">
@@ -8522,7 +8522,7 @@
         <v>1055</v>
       </c>
       <c r="B1056" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1057">
@@ -8530,7 +8530,7 @@
         <v>1056</v>
       </c>
       <c r="B1057" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1058">
@@ -8546,7 +8546,7 @@
         <v>1058</v>
       </c>
       <c r="B1059" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1060">
@@ -8554,7 +8554,7 @@
         <v>1059</v>
       </c>
       <c r="B1060" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1061">
@@ -8562,7 +8562,7 @@
         <v>1060</v>
       </c>
       <c r="B1061" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1062">
@@ -8570,7 +8570,7 @@
         <v>1061</v>
       </c>
       <c r="B1062" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1063">
@@ -8594,7 +8594,7 @@
         <v>1064</v>
       </c>
       <c r="B1065" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1066">
@@ -8602,7 +8602,7 @@
         <v>1065</v>
       </c>
       <c r="B1066" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1067">
@@ -8618,7 +8618,7 @@
         <v>1067</v>
       </c>
       <c r="B1068" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1069">
@@ -8650,7 +8650,7 @@
         <v>1071</v>
       </c>
       <c r="B1072" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1073">
@@ -8658,7 +8658,7 @@
         <v>1072</v>
       </c>
       <c r="B1073" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1074">
@@ -8666,7 +8666,7 @@
         <v>1073</v>
       </c>
       <c r="B1074" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1075">
@@ -8674,7 +8674,7 @@
         <v>1074</v>
       </c>
       <c r="B1075" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1076">
@@ -8682,7 +8682,7 @@
         <v>1075</v>
       </c>
       <c r="B1076" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1077">
@@ -8690,7 +8690,7 @@
         <v>1076</v>
       </c>
       <c r="B1077" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1078">
@@ -8698,7 +8698,7 @@
         <v>1077</v>
       </c>
       <c r="B1078" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1079">
@@ -8706,7 +8706,7 @@
         <v>1078</v>
       </c>
       <c r="B1079" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1080">
@@ -8714,7 +8714,7 @@
         <v>1079</v>
       </c>
       <c r="B1080" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1081">
@@ -8722,7 +8722,7 @@
         <v>1080</v>
       </c>
       <c r="B1081" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1082">
@@ -8730,7 +8730,7 @@
         <v>1081</v>
       </c>
       <c r="B1082" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1083">
@@ -8738,7 +8738,7 @@
         <v>1082</v>
       </c>
       <c r="B1083" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1084">
@@ -8746,7 +8746,7 @@
         <v>1083</v>
       </c>
       <c r="B1084" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1085">
@@ -8754,7 +8754,7 @@
         <v>1084</v>
       </c>
       <c r="B1085" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1086">
@@ -8762,7 +8762,7 @@
         <v>1085</v>
       </c>
       <c r="B1086" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1087">
@@ -8770,7 +8770,7 @@
         <v>1086</v>
       </c>
       <c r="B1087" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1088">
@@ -8778,7 +8778,7 @@
         <v>1087</v>
       </c>
       <c r="B1088" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1089">
@@ -8786,7 +8786,7 @@
         <v>1088</v>
       </c>
       <c r="B1089" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1090">
@@ -8794,7 +8794,7 @@
         <v>1089</v>
       </c>
       <c r="B1090" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1091">
@@ -8802,7 +8802,7 @@
         <v>1090</v>
       </c>
       <c r="B1091" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1092">
@@ -8810,7 +8810,7 @@
         <v>1091</v>
       </c>
       <c r="B1092" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1093">
@@ -8818,7 +8818,7 @@
         <v>1092</v>
       </c>
       <c r="B1093" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1094">
@@ -8826,7 +8826,7 @@
         <v>1093</v>
       </c>
       <c r="B1094" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1095">
@@ -8834,7 +8834,7 @@
         <v>1094</v>
       </c>
       <c r="B1095" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1096">
@@ -8842,7 +8842,7 @@
         <v>1095</v>
       </c>
       <c r="B1096" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1097">
@@ -8850,7 +8850,7 @@
         <v>1096</v>
       </c>
       <c r="B1097" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1098">
@@ -8858,7 +8858,7 @@
         <v>1097</v>
       </c>
       <c r="B1098" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1099">
@@ -8866,7 +8866,7 @@
         <v>1098</v>
       </c>
       <c r="B1099" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1100">
@@ -8874,7 +8874,7 @@
         <v>1099</v>
       </c>
       <c r="B1100" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1101">
@@ -8882,7 +8882,7 @@
         <v>1100</v>
       </c>
       <c r="B1101" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1102">
@@ -8890,7 +8890,7 @@
         <v>1101</v>
       </c>
       <c r="B1102" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1103">
@@ -8898,7 +8898,7 @@
         <v>1102</v>
       </c>
       <c r="B1103" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1104">
@@ -8922,7 +8922,7 @@
         <v>1105</v>
       </c>
       <c r="B1106" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1107">
@@ -8930,7 +8930,7 @@
         <v>1106</v>
       </c>
       <c r="B1107" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1108">
@@ -8938,7 +8938,7 @@
         <v>1107</v>
       </c>
       <c r="B1108" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1109">
@@ -8946,7 +8946,7 @@
         <v>1108</v>
       </c>
       <c r="B1109" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1110">
@@ -8954,7 +8954,7 @@
         <v>1109</v>
       </c>
       <c r="B1110" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1111">
@@ -8962,7 +8962,7 @@
         <v>1110</v>
       </c>
       <c r="B1111" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1112">
@@ -8978,7 +8978,7 @@
         <v>1112</v>
       </c>
       <c r="B1113" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1114">
@@ -9002,7 +9002,7 @@
         <v>1115</v>
       </c>
       <c r="B1116" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1117">
@@ -9018,7 +9018,7 @@
         <v>1117</v>
       </c>
       <c r="B1118" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1119">
@@ -9026,7 +9026,7 @@
         <v>1118</v>
       </c>
       <c r="B1119" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1120">
@@ -9034,7 +9034,7 @@
         <v>1119</v>
       </c>
       <c r="B1120" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1121">
@@ -9042,7 +9042,7 @@
         <v>1120</v>
       </c>
       <c r="B1121" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1122">
@@ -9050,7 +9050,7 @@
         <v>1121</v>
       </c>
       <c r="B1122" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1123">
@@ -9058,7 +9058,7 @@
         <v>1122</v>
       </c>
       <c r="B1123" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1124">
